--- a/Day29-内存管理/文件流.xlsx
+++ b/Day29-内存管理/文件流.xlsx
@@ -706,7 +706,6 @@
       <c r="F24" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Day29-内存管理/文件流.xlsx
+++ b/Day29-内存管理/文件流.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>内存</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,22 @@
       </rPr>
       <t>清空</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往内存中流动的叫输入流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从内存中流出的叫输出流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动的内容是字符：字符输入流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符输出流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,6 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +511,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -553,19 +570,27 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
